--- a/Docs/Tablas Datos Lab 4-5.xlsx
+++ b/Docs/Tablas Datos Lab 4-5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Documents\GitHub\ISIS1225DEVS\ISIS1225-SampleSorts\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/ds_valderrama_uniandes_edu_co/Documents/PrimerSemestre/EDA/LabSorts-S01-G09/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEE77ED-6879-423E-A3BB-D429D1EC54DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{5FEE77ED-6879-423E-A3BB-D429D1EC54DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86217211-D2E2-4244-AE2F-59F4734E0D14}"/>
   <bookViews>
-    <workbookView xWindow="-10933" yWindow="3880" windowWidth="19200" windowHeight="5300" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab4-5" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -637,7 +637,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -724,7 +724,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -892,7 +892,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1059,7 +1059,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1103,7 +1103,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1278,7 +1278,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1453,7 +1453,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1631,7 +1631,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1669,7 +1669,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1833162896"/>
@@ -1753,7 +1753,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1791,7 +1791,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="696671312"/>
@@ -1833,7 +1833,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1870,7 +1870,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -1946,7 +1946,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2043,7 +2043,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2210,7 +2210,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2377,7 +2377,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2552,7 +2552,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2727,7 +2727,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2905,7 +2905,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2943,7 +2943,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1833162896"/>
@@ -3027,7 +3027,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3065,7 +3065,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="696671312"/>
@@ -3107,7 +3107,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3144,7 +3144,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -3220,7 +3220,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3307,7 +3307,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3474,7 +3474,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3652,7 +3652,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3690,7 +3690,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328121328"/>
@@ -3769,7 +3769,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3807,7 +3807,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328118000"/>
@@ -3849,7 +3849,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3886,7 +3886,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -3957,7 +3957,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4044,7 +4044,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4211,7 +4211,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4389,7 +4389,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4427,7 +4427,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328121328"/>
@@ -4506,7 +4506,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4544,7 +4544,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328118000"/>
@@ -4586,7 +4586,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4623,7 +4623,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -4694,7 +4694,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4781,7 +4781,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4948,7 +4948,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5126,7 +5126,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5164,7 +5164,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328121328"/>
@@ -5243,7 +5243,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5281,7 +5281,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328118000"/>
@@ -5323,7 +5323,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5360,7 +5360,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -5439,7 +5439,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5526,7 +5526,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5693,7 +5693,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5871,7 +5871,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5909,7 +5909,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328121328"/>
@@ -5988,7 +5988,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6026,7 +6026,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328118000"/>
@@ -6068,7 +6068,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6105,7 +6105,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -6184,7 +6184,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6272,7 +6272,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -6440,7 +6440,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -6618,7 +6618,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6656,7 +6656,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328121328"/>
@@ -6735,7 +6735,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6773,7 +6773,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328118000"/>
@@ -6815,7 +6815,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6852,7 +6852,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -10759,7 +10759,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0D09CF8B-80E2-4734-A9D4-9F6060F1BA3D}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="86" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10770,7 +10770,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3D4D373F-B89D-476A-916E-D6B8B50B0AC1}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="86" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10781,7 +10781,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{662C0436-FCD4-45AD-AA7D-093158D92847}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="86" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10792,7 +10792,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{39C68510-AE01-4761-A7FB-5F1B76E923F7}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="86" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10803,7 +10803,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C0D6BB1E-4928-4857-A0CD-C818D0A5A6F2}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="86" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10825,7 +10825,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8661400" cy="6286500"/>
+    <xdr:ext cx="8656320" cy="6278880"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -10858,7 +10858,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6288490"/>
+    <xdr:ext cx="8656674" cy="6282070"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -10891,7 +10891,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6288490"/>
+    <xdr:ext cx="8656674" cy="6282070"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -10924,7 +10924,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6288490"/>
+    <xdr:ext cx="8656674" cy="6282070"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -10957,7 +10957,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6288490"/>
+    <xdr:ext cx="8656674" cy="6282070"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -10990,7 +10990,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6288490"/>
+    <xdr:ext cx="8656674" cy="6282070"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -11381,20 +11381,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14742-4EBB-4241-AC8A-0E5F24F7BB7B}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="34.1171875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.52734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.76171875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="22.1171875" customWidth="1"/>
+    <col min="5" max="6" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -11414,7 +11414,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1000</v>
       </c>
@@ -11434,7 +11434,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2000</v>
       </c>
@@ -11455,7 +11455,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>4000</v>
       </c>
@@ -11477,7 +11477,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>8000</v>
       </c>
@@ -11499,7 +11499,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>16000</v>
       </c>
@@ -11521,7 +11521,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>32000</v>
       </c>
@@ -11543,7 +11543,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>64000</v>
       </c>
@@ -11565,7 +11565,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>128000</v>
       </c>
@@ -11587,7 +11587,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>256000</v>
       </c>
@@ -11609,7 +11609,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>512000</v>
       </c>
@@ -11631,7 +11631,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -11651,7 +11651,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>1000</v>
       </c>
@@ -11671,7 +11671,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>2000</v>
       </c>
@@ -11692,7 +11692,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>4000</v>
       </c>
@@ -11714,7 +11714,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>8000</v>
       </c>
@@ -11736,7 +11736,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>16000</v>
       </c>
@@ -11758,7 +11758,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>32000</v>
       </c>
@@ -11780,7 +11780,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>64000</v>
       </c>
@@ -11802,7 +11802,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>128000</v>
       </c>
@@ -11824,7 +11824,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>256000</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>512000</v>
       </c>
@@ -11878,12 +11878,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12098,15 +12095,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12131,18 +12140,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>